--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3089070.727151798</v>
+        <v>3180558.933311691</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10907410.15957845</v>
+        <v>10765458.01142767</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.37779077</v>
+        <v>957184.2302436535</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845718.215643159</v>
+        <v>7988294.717248585</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>216.9590812493069</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>250.8463306704132</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870211</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1613,16 +1615,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>323.7585805631173</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1664,7 +1666,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>241.5568898169259</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1771,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1819,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1853,13 +1855,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T17" t="n">
-        <v>2.349195758672772</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1910,7 +1912,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>296.9374456294967</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020904</v>
@@ -2096,7 +2098,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.63103777770814</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>88.06238220014555</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958415</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797649</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433856</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145467</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128514</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3207,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>294.1817752719619</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>266.1309752291643</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807431</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>318.3239793501928</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>322.3696592619348</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>98.83423968024786</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>115.3659037481015</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>162.4431055673833</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>260.6889023258943</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>281.1790342869504</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.0485868768581</v>
+        <v>297.685872264535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>91.27991379041865</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>78.69475470710918</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>60.06340662669371</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>57.88189625505052</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>56.86898163141259</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>56.20294852280213</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>7.80035401831946</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>0.3800862785286938</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>101.2169589399232</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>130.9968828846505</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870209</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>197.9709319450724</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975185</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>161.2846129537772</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>294.1817752719619</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>276.7208253794889</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>266.1309752291643</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>293.3783036807431</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>318.3239793501928</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>322.3696592619348</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>206.0556979958018</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.6356953966572</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>162.4431055673833</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>239.2001920786163</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>260.6889023258943</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>281.1790342869504</v>
       </c>
       <c r="Y38" t="n">
-        <v>171.2400542547753</v>
+        <v>285.1946223004269</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>91.27991379041865</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>57.88189625505052</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>56.86898163141259</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>77.47374186750957</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>56.20294852280213</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>7.80035401831946</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>0.3800862785286938</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>162.2489088778515</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>197.6597718140942</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>163.5855769323094</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>197.9709319450724</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>137.1575889975185</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>130.0325869605761</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>67.61083201524987</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U41" t="n">
-        <v>209.6931219609836</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>191.4660553680769</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E43" t="n">
-        <v>119.9011699055444</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>47.35522289712137</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>116.2484987974966</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>323.6959619980814</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>313.1061118477568</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>340.3534402993357</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>365.2991159687853</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>369.3447958805273</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9746808062639</v>
+        <v>253.0308346143944</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>93.26375684447945</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>209.4182421859759</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>286.1753286972088</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>328.1541709055429</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>344.6610088831275</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2550504090112</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>125.6698913257017</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.0385432452862</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8570328736431</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.8441182500051</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>124.4488784861021</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>29.25600601214174</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>47.35522289712125</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>148.1920955585158</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>177.9720195032431</v>
       </c>
       <c r="U46" t="n">
-        <v>208.5297823800585</v>
+        <v>244.6349084326867</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>210.5607135509019</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>244.9460685636649</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>184.132725616111</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>177.0077235791687</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1665.976477910008</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>1665.976477910008</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
-        <v>1355.160412251331</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>1016.82179260116</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F11" t="n">
-        <v>653.2855207596256</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G11" t="n">
-        <v>285.6627035526954</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
@@ -5054,37 +5056,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>2979.151531688842</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2673.832509366801</v>
+        <v>2361.162441252732</v>
       </c>
       <c r="X11" t="n">
-        <v>2347.816384053795</v>
+        <v>2361.162441252732</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.126685026056</v>
+        <v>2018.472742224994</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>1785.734441306721</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>1664.247891326887</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>1561.580884862625</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>1461.117424228305</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>1361.677109678468</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>1241.42390600126</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>1142.656352167191</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>1092.78030793361</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>1184.408325632952</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>1434.900893834235</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>1797.966077535138</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885667</v>
+        <v>2188.628508387093</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>2576.542270345365</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>2922.377254518185</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>3201.490140204251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>3283.224997314773</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>3138.988746089673</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>2964.671763607272</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>2723.018529680989</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>2515.783674423175</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>2273.816137334288</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>2093.276219384344</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874604</v>
+        <v>1919.933273188887</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1364.208554989044</v>
+        <v>1680.134122574823</v>
       </c>
       <c r="C14" t="n">
-        <v>1042.695670996706</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="D14" t="n">
-        <v>731.8796053380283</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E14" t="n">
-        <v>393.5409856878574</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.383608767878</v>
+        <v>2654.158969237609</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.064586445837</v>
+        <v>2348.839946915568</v>
       </c>
       <c r="X14" t="n">
-        <v>2046.048461132831</v>
+        <v>2022.823821602561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1703.358762105092</v>
+        <v>1680.134122574823</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5416,13 +5418,13 @@
         <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5437,25 +5439,25 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
         <v>2256.956805813347</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1457.522709123157</v>
+        <v>1344.120404724782</v>
       </c>
       <c r="C17" t="n">
-        <v>1136.009825130819</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D17" t="n">
-        <v>1136.009825130819</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E17" t="n">
-        <v>797.6712054806478</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5515,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5543,22 +5545,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3260.391861075579</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U17" t="n">
-        <v>3054.311017297488</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2770.697762901991</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2465.37874057995</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>2139.362615266944</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>1796.672916239206</v>
+        <v>1683.270611840831</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5671,10 +5673,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
         <v>771.6978860337115</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.338774781834</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="C20" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5768,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3287.594672338758</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3287.594672338758</v>
+        <v>3173.812884872071</v>
       </c>
       <c r="U20" t="n">
-        <v>3081.513828560668</v>
+        <v>2967.732041093981</v>
       </c>
       <c r="V20" t="n">
-        <v>3081.513828560668</v>
+        <v>2684.118786698483</v>
       </c>
       <c r="W20" t="n">
-        <v>2776.194806238627</v>
+        <v>2378.799764376442</v>
       </c>
       <c r="X20" t="n">
-        <v>2450.178680925621</v>
+        <v>2378.799764376442</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.488981897883</v>
+        <v>2036.110065348704</v>
       </c>
     </row>
     <row r="21">
@@ -5850,7 +5852,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5969,70 +5971,70 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>771.251070565914</v>
+        <v>727.1188267890172</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M23" t="n">
-        <v>2200.835586644151</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N23" t="n">
-        <v>2747.614403702933</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O23" t="n">
-        <v>3250.58687458227</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P23" t="n">
-        <v>3645.361240939448</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
@@ -6084,10 +6086,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R24" t="n">
         <v>2579.543989590362</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960313</v>
@@ -6151,10 +6153,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6203,19 +6205,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,22 +6226,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2716.080607949975</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3219.053078829312</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521973</v>
@@ -6251,25 +6253,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6324,7 +6326,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,34 +6402,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6467,16 +6469,16 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3071.136282571877</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6488,10 +6490,10 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
@@ -6561,7 +6563,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6619,13 +6621,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6637,7 +6639,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6676,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,10 +6742,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6774,16 +6776,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415474</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6889,19 +6891,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.472742224994</v>
+        <v>1658.186846312761</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232655</v>
+        <v>1378.670861080954</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>1109.851694182808</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>813.5099732931686</v>
       </c>
       <c r="F35" t="n">
-        <v>684.268901082273</v>
+        <v>491.9706002121658</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>166.3446817657671</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810532</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329462</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001386</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060168</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="T35" t="n">
-        <v>3262.764786084339</v>
+        <v>3209.074605701995</v>
       </c>
       <c r="U35" t="n">
-        <v>3056.683942306249</v>
+        <v>3044.990660684436</v>
       </c>
       <c r="V35" t="n">
-        <v>3056.683942306249</v>
+        <v>2803.37430504947</v>
       </c>
       <c r="W35" t="n">
-        <v>2751.364919984208</v>
+        <v>2540.05218148796</v>
       </c>
       <c r="X35" t="n">
-        <v>2425.348794671202</v>
+        <v>2256.032954935485</v>
       </c>
       <c r="Y35" t="n">
-        <v>2357.622949341042</v>
+        <v>1955.340154668278</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052942</v>
+        <v>554.9344901901792</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254606</v>
+        <v>475.444838970877</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611982</v>
+        <v>414.774731267146</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268784</v>
+        <v>356.3081693933576</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>298.8647536040519</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>131.1619169787708</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>74.39126190523332</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328086</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337114</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1824.671270090056</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1692.351186368187</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179562</v>
+        <v>1403.24831949383</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1148.563831287943</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>948.5931929595876</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>810.050173770175</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>647.1364233118142</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2018.472742224994</v>
+        <v>1766.491349661806</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232655</v>
+        <v>1486.975364429999</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1218.156197531853</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>921.8144766422131</v>
       </c>
       <c r="F38" t="n">
-        <v>684.268901082273</v>
+        <v>600.2751035612102</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>274.6491851148115</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.761684844869</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.761684844869</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.52497783108</v>
+        <v>3140.67773982731</v>
       </c>
       <c r="V38" t="n">
-        <v>2835.911723435583</v>
+        <v>2899.061384192344</v>
       </c>
       <c r="W38" t="n">
-        <v>2530.592701113542</v>
+        <v>2635.739260630835</v>
       </c>
       <c r="X38" t="n">
-        <v>2530.592701113542</v>
+        <v>2351.72003407836</v>
       </c>
       <c r="Y38" t="n">
-        <v>2357.622949341042</v>
+        <v>2063.644658017322</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7272,7 +7274,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052942</v>
+        <v>644.381021898784</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254606</v>
+        <v>475.4448389708771</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611982</v>
+        <v>325.3281995585413</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268784</v>
+        <v>266.8616376847529</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>209.4182218954472</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>131.1619169787709</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>74.39126190523335</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315256</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328085</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843937</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016757</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702823</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107745</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813346</v>
+        <v>1926.910622554625</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588246</v>
+        <v>1735.224738381451</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105845</v>
+        <v>1571.336951636147</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179562</v>
+        <v>1371.680616470395</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1206.442659973113</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832861</v>
+        <v>1006.472021644757</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>867.9290024553443</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874605</v>
+        <v>736.5829550204189</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>2051.189147350246</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1724.223529170366</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1064.163375486434</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>695.1743694573572</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>322.0988180628849</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3257.312051896795</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3093.331203041549</v>
       </c>
       <c r="U41" t="n">
-        <v>2797.526171216464</v>
+        <v>2881.797625075916</v>
       </c>
       <c r="V41" t="n">
-        <v>2797.526171216464</v>
+        <v>2592.731636492877</v>
       </c>
       <c r="W41" t="n">
-        <v>2797.526171216464</v>
+        <v>2592.731636492877</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.060412955384</v>
+        <v>2399.331580565527</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.921080979572</v>
+        <v>2051.189147350246</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7509,7 +7511,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>652.8944183884515</v>
+        <v>797.6353891180884</v>
       </c>
       <c r="C43" t="n">
-        <v>483.9582354605446</v>
+        <v>670.6961049507128</v>
       </c>
       <c r="D43" t="n">
-        <v>333.8415960482089</v>
+        <v>562.5763642989083</v>
       </c>
       <c r="E43" t="n">
-        <v>212.7293032143256</v>
+        <v>456.6601694770465</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7293032143256</v>
+        <v>351.7671207396674</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>226.0611828749176</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>121.8408948533067</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>152.7959093543156</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T43" t="n">
-        <v>1645.778206672847</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U43" t="n">
-        <v>1645.778206672847</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V43" t="n">
-        <v>1391.09371846696</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W43" t="n">
-        <v>1101.676548429999</v>
+        <v>1302.075287708282</v>
       </c>
       <c r="X43" t="n">
-        <v>873.6869975319817</v>
+        <v>1116.082635570796</v>
       </c>
       <c r="Y43" t="n">
-        <v>652.8944183884515</v>
+        <v>937.2869551877968</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.569348694472</v>
+        <v>2051.189147350245</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.606831754061</v>
+        <v>1724.223529170365</v>
       </c>
       <c r="D44" t="n">
-        <v>764.3411331473101</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E44" t="n">
-        <v>764.3411331473101</v>
+        <v>1064.163375486433</v>
       </c>
       <c r="F44" t="n">
-        <v>353.3552283577025</v>
+        <v>695.1743694573569</v>
       </c>
       <c r="G44" t="n">
-        <v>353.3552283577025</v>
+        <v>322.0988180628848</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3231.400006614745</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3019.866428649113</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2730.800440066074</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2730.800440066074</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734406</v>
+        <v>2399.331580565525</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758594</v>
+        <v>2051.189147350245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>796.8106393615039</v>
+        <v>667.637843899739</v>
       </c>
       <c r="C46" t="n">
-        <v>627.8744564335971</v>
+        <v>540.6985597323635</v>
       </c>
       <c r="D46" t="n">
-        <v>477.7578170212613</v>
+        <v>432.5788190805592</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>326.6626242586975</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>221.7695755213186</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>96.06363765656897</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1140.983417776828</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>2059.061287995484</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1879.291571325541</v>
       </c>
       <c r="U46" t="n">
-        <v>1716.658404270252</v>
+        <v>1632.185603211716</v>
       </c>
       <c r="V46" t="n">
-        <v>1716.658404270252</v>
+        <v>1419.498013766361</v>
       </c>
       <c r="W46" t="n">
-        <v>1427.241234233291</v>
+        <v>1172.077742489932</v>
       </c>
       <c r="X46" t="n">
-        <v>1199.251683335274</v>
+        <v>986.0850903524458</v>
       </c>
       <c r="Y46" t="n">
-        <v>978.4591041917437</v>
+        <v>807.2894099694472</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.6038539184174</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L5" t="n">
-        <v>215.3140777428999</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M5" t="n">
-        <v>207.5890673186449</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N5" t="n">
-        <v>206.287662951677</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O5" t="n">
-        <v>208.2615513518522</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P5" t="n">
-        <v>212.5959115946518</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.3100158302398</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.2861621969141</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>126.643942693644</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>123.4979641735838</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>124.5639070747221</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3065562599333</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>126.0976003197209</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7327909580799</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.1301041576208</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.2415162733971</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M7" t="n">
-        <v>129.8127835797925</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7892308776099</v>
+        <v>126.6717389884799</v>
       </c>
       <c r="O7" t="n">
-        <v>130.2393529435931</v>
+        <v>137.5201250048898</v>
       </c>
       <c r="P7" t="n">
-        <v>130.6967822841776</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>127.8919143043921</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>140.4257984522866</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>136.9361133513514</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>120.378480116088</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>117.6659172723209</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>124.5785499236786</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>141.1744059503689</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>154.6754395129682</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>95.17947423155574</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>83.73261402642345</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>65.79838719363549</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>57.23122225234843</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.19177562496814</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>62.87107870713125</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>69.98793321536732</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>97.2085106130412</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>96.37502886873418</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>93.11897972398813</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>94.88971291075387</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>84.69655277217997</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>98.74924665337602</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>103.7515562689314</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>124.5185911550064</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.738561194469</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>137.5908801368512</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,19 +10117,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>306.6874953089258</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>336.8335818149097</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-2.535552988594192e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.17313444033134</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.67646625668006</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>30.673546519421</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>51.41950142840724</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>36.1423285600016</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>39.22023203461646</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>154.5936377623548</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>42.32535640796436</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.58158739187515</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>68.88045132088206</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>107.221458315554</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.6356953966572</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.2142151606029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>115.3659037481015</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>168.0227477826857</v>
+        <v>12.49124996410802</v>
       </c>
     </row>
     <row r="39">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>41.30204999791837</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>136.6881155374662</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>26.53279274102475</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>128.6975697661684</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>341.1569118905545</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>10.63308358105655</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>67.61083201524978</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>69.0772835222146</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>307.6640389444869</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>73.92207912925295</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.77549063691201</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>77.68205582555436</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760671.8756528459</v>
+        <v>766563.1088662037</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>714166.5517580548</v>
+        <v>732378.7878996893</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>641107.1305643299</v>
+        <v>641107.13056433</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641107.1305643299</v>
+        <v>679332.1282589624</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641107.1305643299</v>
+        <v>679332.1282589625</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>573014.2607072286</v>
+        <v>633595.9152731907</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>573014.2607072287</v>
+        <v>633595.9152731909</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
-        <v>757840.1559876584</v>
+        <v>757831.7007766771</v>
       </c>
       <c r="D2" t="n">
-        <v>757900.1082045459</v>
+        <v>757876.7256660203</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481045</v>
+        <v>707191.1841481046</v>
       </c>
       <c r="F2" t="n">
         <v>707191.1841481046</v>
       </c>
       <c r="G2" t="n">
+        <v>707191.1841481042</v>
+      </c>
+      <c r="H2" t="n">
         <v>707191.1841481047</v>
       </c>
-      <c r="H2" t="n">
-        <v>707191.1841481046</v>
-      </c>
       <c r="I2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244614</v>
       </c>
       <c r="J2" t="n">
         <v>759463.6371244615</v>
       </c>
       <c r="K2" t="n">
+        <v>759463.6371244611</v>
+      </c>
+      <c r="L2" t="n">
         <v>759463.6371244619</v>
       </c>
-      <c r="L2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="M2" t="n">
-        <v>707191.1841481046</v>
+        <v>750049.5148966319</v>
       </c>
       <c r="N2" t="n">
-        <v>707191.1841481047</v>
+        <v>750049.5148966325</v>
       </c>
       <c r="O2" t="n">
-        <v>630844.6330962034</v>
+        <v>698769.5185186466</v>
       </c>
       <c r="P2" t="n">
-        <v>630844.6330962033</v>
+        <v>698769.5185186464</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29356.68375670019</v>
+        <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>173459.1820050291</v>
+        <v>130270.0864268416</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621992</v>
+        <v>1036190.04692843</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902286</v>
+        <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487415</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>194861.9769234551</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>436273.8797192482</v>
       </c>
       <c r="C4" t="n">
-        <v>427307.9703100271</v>
+        <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>372681.4073629099</v>
+        <v>393961.370480575</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359859</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359856</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="G4" t="n">
         <v>58215.55741359854</v>
@@ -26436,28 +26438,28 @@
         <v>58215.55741359854</v>
       </c>
       <c r="I4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409854</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.7615040985</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
-        <v>58215.55741359857</v>
+        <v>84545.12538744757</v>
       </c>
       <c r="N4" t="n">
-        <v>58215.55741359858</v>
+        <v>84545.12538744762</v>
       </c>
       <c r="O4" t="n">
-        <v>10990.29103211611</v>
+        <v>53005.67962103673</v>
       </c>
       <c r="P4" t="n">
-        <v>10990.29103211609</v>
+        <v>53005.67962103686</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34330.40507389184</v>
+        <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>37023.7124667868</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>81750.82423086182</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>81750.82423086185</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>77801.67147047337</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>77801.67147047337</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287929.1335940122</v>
+        <v>287929.1335940124</v>
       </c>
       <c r="C6" t="n">
-        <v>266845.0968470394</v>
+        <v>285537.5427146233</v>
       </c>
       <c r="D6" t="n">
-        <v>173013.7140054603</v>
+        <v>196621.556291817</v>
       </c>
       <c r="E6" t="n">
-        <v>-402005.043249475</v>
+        <v>-465469.9135157055</v>
       </c>
       <c r="F6" t="n">
-        <v>570720.1334127244</v>
+        <v>570720.1334127245</v>
       </c>
       <c r="G6" t="n">
+        <v>570720.1334127242</v>
+      </c>
+      <c r="H6" t="n">
         <v>570720.1334127245</v>
       </c>
-      <c r="H6" t="n">
-        <v>570720.1334127244</v>
-      </c>
       <c r="I6" t="n">
-        <v>538632.6742665342</v>
+        <v>538632.6742665339</v>
       </c>
       <c r="J6" t="n">
-        <v>549698.824650683</v>
+        <v>549698.8246506827</v>
       </c>
       <c r="K6" t="n">
+        <v>587278.9339455568</v>
+      </c>
+      <c r="L6" t="n">
         <v>587278.9339455573</v>
       </c>
-      <c r="L6" t="n">
-        <v>587278.9339455576</v>
-      </c>
       <c r="M6" t="n">
-        <v>409119.70030761</v>
+        <v>388891.5883548674</v>
       </c>
       <c r="N6" t="n">
-        <v>570720.1334127244</v>
+        <v>583753.565278323</v>
       </c>
       <c r="O6" t="n">
-        <v>545548.0015026941</v>
+        <v>567962.1674271364</v>
       </c>
       <c r="P6" t="n">
-        <v>545548.001502694</v>
+        <v>567962.1674271361</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859269</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2387648574242</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>155.7849755406787</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26808,7 +26810,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26817,19 +26819,19 @@
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.2387648574242</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>202.54127326857</v>
+        <v>152.1111126474364</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673038</v>
+        <v>933.9917250526198</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.431487389904291e-14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063217</v>
+        <v>182.9350058063219</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1475046259336</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>205.4793670290357</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9493903844906768</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>141.7279387935108</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>206.0667395191557</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5285121041781</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3352846618522</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2741734048381</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5657295174771</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>87.00913941621904</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.85243834772146</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3951412059964</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8852246862936</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9368199916082</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.932843880847</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7102952610369</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7021825641704</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>89.24900184952216</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>15.51520633608152</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.29398975822333</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.6794089020085</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>223.0034552135021</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6971923875768</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3158583304393</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>333.061001590115</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>186.3315668788199</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>110.5291060022264</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>194.7489132842022</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>220.3543471302446</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2955512071601</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>137.0084324988401</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>108.9992318200759</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>77.85972664392142</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>79.35319157005965</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>165.4591204301135</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>198.8141023502755</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9193370372662</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.7100556320739</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>159.7295051946726</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>147.002332319249</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>73.49787266126526</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>62.6385119450519</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>164.6620390980843</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>219.1208636417021</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>226.7452789610008</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3037062441426</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.9751366185928</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859273</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859284</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29769,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>57.30004039831758</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185917</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>57.30004039831772</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>88.55206639151865</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>41.57692977292611</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1296030748037153</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327297489833549</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>4.996522541370238</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99989897012184</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>16.48599712656311</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>20.45233722708732</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>22.75716590862789</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>23.12540064491395</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>21.8366600698345</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
-        <v>18.63708416061777</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99567404420972</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.141179147638887</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>2.953330067089665</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5673374599532639</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01036824598429722</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06934375837257281</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6697147190193218</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.387493435196038</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>6.551464469752593</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>11.19749628071497</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>15.05641560629043</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>17.57012684729619</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>18.03515582339998</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4986441247235</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>13.24161645625033</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.851669928400698</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.305395804921671</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.288029897841428</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2795040085280456</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004562089366616634</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05813547761174855</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5168772464026375</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.748292363087857</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.110178267150623</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>6.75428548980133</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>8.643160007841237</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.113000367812546</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>8.896313587623309</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.217185508249699</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.031221764970022</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.868053493471054</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.613982475160984</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.013142823470199</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2483970407047437</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003171026051549925</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.6262712584549893</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>6.413800525652161</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>24.144322691586</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>53.1539902222942</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>79.66405259269392</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>98.83030161863581</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>109.9677531111847</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>111.74714632427</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>105.5196614980082</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>90.05858980490061</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>67.63025036148127</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>39.34001193892326</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>14.27115630204308</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>2.741502433886717</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.05010170067639914</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.3350846643705165</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>3.236212416420515</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>11.53690620749366</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>31.65815243511095</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>54.10882494793555</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>72.75599258623869</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>84.90281166966989</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>87.14993645836516</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>79.72516573731319</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>63.98647419896293</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>42.77326347298032</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>20.80464258258348</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>6.224050673724283</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>1.350626344546072</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.02204504370858662</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.2809237263848304</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>2.497667312766949</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>8.448142608009267</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>19.86130745540751</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>32.6382293018012</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>41.76569655725016</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>44.03607103685119</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>42.98899169305322</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>39.70729179846678</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>33.9764477802162</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>23.52353130664249</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>12.63135227908519</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>4.895734395270179</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>1.200310467280639</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.0153231123482635</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32314,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32804,7 +32806,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33749,7 +33751,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35580,7 +35582,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.553553231659</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120763</v>
@@ -36136,13 +36138,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36285,10 +36287,10 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>461.7098777104068</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36373,13 +36375,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>356.5328659981884</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776185</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>536.3528663562229</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165888</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,19 +36837,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>858.9893307218371</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>685.7637716667631</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>844.8865827031289</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37244,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865553984</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37397,7 +37399,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861318</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>87.15534638599227</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>361.3343019431241</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>119.9711683108197</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3180558.933311691</v>
+        <v>3173815.730958523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10765458.01142767</v>
+        <v>10745730.05669567</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>957184.2302436535</v>
+        <v>881594.5289180109</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7988294.717248585</v>
+        <v>8006564.233810547</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>250.8463306704132</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>52.50412553520743</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124525</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1593,7 +1593,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>241.6510731180165</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.5568898169259</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1821,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1830,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1846,7 +1846,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>73.01432314235925</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1906,13 +1906,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.9374456294967</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2083,22 +2083,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>88.06238220014555</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481093</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2320,19 +2320,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2380,10 +2380,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958415</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797649</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433856</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957281</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145467</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128514</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335019</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2967,10 +2967,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3031,19 +3031,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.1817752719619</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C35" t="n">
-        <v>276.7208253794889</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D35" t="n">
-        <v>266.1309752291643</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>293.3783036807431</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F35" t="n">
-        <v>318.3239793501928</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G35" t="n">
-        <v>322.3696592619348</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H35" t="n">
-        <v>98.83423968024786</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.23748855099068</v>
       </c>
       <c r="T35" t="n">
-        <v>115.3659037481015</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U35" t="n">
-        <v>162.4431055673833</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V35" t="n">
-        <v>239.2001920786163</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W35" t="n">
-        <v>260.6889023258943</v>
+        <v>203.0084376073507</v>
       </c>
       <c r="X35" t="n">
-        <v>281.1790342869504</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.685872264535</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.27991379041865</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C37" t="n">
-        <v>78.69475470710918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>60.06340662669371</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E37" t="n">
-        <v>57.88189625505052</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>56.86898163141259</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H37" t="n">
-        <v>56.20294852280213</v>
+        <v>53.26506285967823</v>
       </c>
       <c r="I37" t="n">
-        <v>7.80035401831946</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3800862785286938</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.2169589399232</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T37" t="n">
-        <v>130.9968828846505</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W37" t="n">
-        <v>197.9709319450724</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X37" t="n">
-        <v>137.1575889975185</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.2846129537772</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.1817752719619</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C38" t="n">
-        <v>276.7208253794889</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D38" t="n">
-        <v>266.1309752291643</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>293.3783036807431</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F38" t="n">
-        <v>318.3239793501928</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G38" t="n">
-        <v>322.3696592619348</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>206.0556979958018</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.6356953966572</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>72.92292758054849</v>
       </c>
       <c r="U38" t="n">
-        <v>162.4431055673833</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V38" t="n">
-        <v>239.2001920786163</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W38" t="n">
-        <v>260.6889023258943</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X38" t="n">
-        <v>281.1790342869504</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>285.1946223004269</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.27991379041865</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E40" t="n">
-        <v>57.88189625505052</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>56.86898163141259</v>
+        <v>53.93109596828869</v>
       </c>
       <c r="G40" t="n">
-        <v>77.47374186750957</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H40" t="n">
-        <v>56.20294852280213</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I40" t="n">
-        <v>7.80035401831946</v>
+        <v>2.402147172652938</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3800862785286938</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>162.2489088778515</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>197.6597718140942</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>163.5855769323094</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W40" t="n">
-        <v>197.9709319450724</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X40" t="n">
-        <v>137.1575889975185</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.0325869605761</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>323.6959619980815</v>
+        <v>163.7041173900598</v>
       </c>
       <c r="D41" t="n">
-        <v>313.106111847757</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.61083201524987</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T41" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>286.1753286972089</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>191.4660553680769</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>124.4488784861022</v>
+        <v>119.0506716404366</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>54.77549063691213</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.35522289712137</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S43" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V43" t="n">
-        <v>210.560713550902</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>116.2484987974966</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>323.6959619980814</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>313.1061118477568</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>340.3534402993357</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2991159687853</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>369.3447958805273</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>253.0308346143944</v>
+        <v>241.6510731180174</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>93.26375684447945</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.4182421859759</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>286.1753286972088</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>328.1541709055429</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.6610088831275</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.2550504090112</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>125.6698913257017</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>107.0385432452862</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8570328736431</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>103.8441182500051</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4488784861021</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>29.25600601214174</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.35522289712125</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>148.1920955585158</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>177.9720195032431</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6349084326867</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>210.5607135509019</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>244.9460685636649</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>184.132725616111</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.0077235791687</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5020,31 +5020,31 @@
         <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D11" t="n">
         <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638546</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243049</v>
+        <v>3041.992567213672</v>
       </c>
       <c r="W11" t="n">
-        <v>2361.162441252732</v>
+        <v>2736.673544891632</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.162441252732</v>
+        <v>2410.657419578625</v>
       </c>
       <c r="Y11" t="n">
-        <v>2018.472742224994</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1785.734441306721</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>1664.247891326887</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>1561.580884862625</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>1461.117424228305</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
-        <v>1361.677109678468</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>1241.42390600126</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H13" t="n">
-        <v>1142.656352167191</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I13" t="n">
-        <v>1092.78030793361</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>1184.408325632952</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>1434.900893834235</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.966077535138</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
-        <v>2188.628508387093</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>2576.542270345365</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>2922.377254518185</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>3201.490140204251</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>3325.605821609172</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>3283.224997314773</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>3138.988746089673</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>2964.671763607272</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>2723.018529680989</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>2515.783674423175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>2273.816137334288</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>2093.276219384344</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>1919.933273188887</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1680.134122574823</v>
+        <v>2012.430767830336</v>
       </c>
       <c r="C14" t="n">
-        <v>1358.621238582484</v>
+        <v>1690.917883837997</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.805172923807</v>
+        <v>1380.10181817932</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>1041.763198529149</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>678.2269266876151</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>310.6041094806849</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2654.158969237609</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2348.839946915568</v>
+        <v>3020.286799287129</v>
       </c>
       <c r="X14" t="n">
-        <v>2022.823821602561</v>
+        <v>2694.270673974122</v>
       </c>
       <c r="Y14" t="n">
-        <v>1680.134122574823</v>
+        <v>2351.580974946384</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5448,40 +5448,40 @@
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1344.120404724782</v>
+        <v>1459.895634131917</v>
       </c>
       <c r="C17" t="n">
-        <v>1022.607520732444</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D17" t="n">
-        <v>1022.607520732444</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>684.2689010822733</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822733</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G17" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416634</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638544</v>
+        <v>3056.683942306248</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243047</v>
+        <v>2773.070687910751</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.223550921006</v>
+        <v>2467.75166558871</v>
       </c>
       <c r="X17" t="n">
-        <v>1983.207425607999</v>
+        <v>2141.735540275703</v>
       </c>
       <c r="Y17" t="n">
-        <v>1683.270611840831</v>
+        <v>1799.045841247965</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5618,28 +5618,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770418</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
@@ -5679,7 +5679,7 @@
         <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1696.959858232656</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232656</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D20" t="n">
         <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822733</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3173.812884872071</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2967.732041093981</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2684.118786698483</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2378.799764376442</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X20" t="n">
-        <v>2378.799764376442</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y20" t="n">
-        <v>2036.110065348704</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="23">
@@ -5977,52 +5977,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
         <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>727.1188267890172</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L23" t="n">
-        <v>1178.153040037426</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M23" t="n">
-        <v>1711.68494470935</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N23" t="n">
-        <v>2258.463761768132</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O23" t="n">
-        <v>2761.436232647469</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
         <v>3346.282596468334</v>
@@ -6065,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
@@ -6086,7 +6086,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
         <v>2579.688342997847</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6165,7 +6165,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6192,7 +6192,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6232,46 +6232,46 @@
         <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1635.769886219269</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2169.301790891193</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2716.080607949975</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3219.053078829312</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6402,34 +6402,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>390.9762157434857</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>1045.699547878785</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N29" t="n">
-        <v>2568.163811692541</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O29" t="n">
-        <v>3071.136282571877</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6496,7 +6496,7 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6505,10 +6505,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6554,13 +6554,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960313</v>
@@ -6627,10 +6627,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6639,7 +6639,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6666,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6688,10 +6688,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6700,28 +6700,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400774</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3672.421873296411</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6736,7 +6736,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6779,25 +6779,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6846,10 +6846,10 @@
         <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6861,10 +6861,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6888,7 +6888,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1658.186846312761</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C35" t="n">
-        <v>1378.670861080954</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D35" t="n">
-        <v>1109.851694182808</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E35" t="n">
-        <v>813.5099732931686</v>
+        <v>905.4562740795874</v>
       </c>
       <c r="F35" t="n">
-        <v>491.9706002121658</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
-        <v>166.3446817657671</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810532</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329462</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001386</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060168</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609168</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T35" t="n">
-        <v>3209.074605701995</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U35" t="n">
-        <v>3044.990660684436</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V35" t="n">
-        <v>2803.37430504947</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W35" t="n">
-        <v>2540.05218148796</v>
+        <v>2599.282077149127</v>
       </c>
       <c r="X35" t="n">
-        <v>2256.032954935485</v>
+        <v>2320.715584784194</v>
       </c>
       <c r="Y35" t="n">
-        <v>1955.340154668278</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>554.9344901901792</v>
+        <v>809.4010556650268</v>
       </c>
       <c r="C37" t="n">
-        <v>475.444838970877</v>
+        <v>640.4648727371199</v>
       </c>
       <c r="D37" t="n">
-        <v>414.774731267146</v>
+        <v>585.2474992209308</v>
       </c>
       <c r="E37" t="n">
-        <v>356.3081693933576</v>
+        <v>437.3344056385376</v>
       </c>
       <c r="F37" t="n">
-        <v>298.8647536040519</v>
+        <v>290.4444581406273</v>
       </c>
       <c r="G37" t="n">
-        <v>131.1619169787708</v>
+        <v>217.6408874114929</v>
       </c>
       <c r="H37" t="n">
-        <v>74.39126190523332</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1926.910622554625</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1824.671270090056</v>
+        <v>1830.507929811465</v>
       </c>
       <c r="T37" t="n">
-        <v>1692.351186368187</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U37" t="n">
-        <v>1403.24831949383</v>
+        <v>1509.436979298928</v>
       </c>
       <c r="V37" t="n">
-        <v>1148.563831287943</v>
+        <v>1349.651756989188</v>
       </c>
       <c r="W37" t="n">
-        <v>948.5931929595876</v>
+        <v>1155.133852848374</v>
       </c>
       <c r="X37" t="n">
-        <v>810.050173770175</v>
+        <v>1022.043567846503</v>
       </c>
       <c r="Y37" t="n">
-        <v>647.1364233118142</v>
+        <v>896.1502545991199</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1766.491349661806</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C38" t="n">
-        <v>1486.975364429999</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D38" t="n">
-        <v>1218.156197531853</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E38" t="n">
-        <v>921.8144766422131</v>
+        <v>905.4562740795874</v>
       </c>
       <c r="F38" t="n">
-        <v>600.2751035612102</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G38" t="n">
-        <v>274.6491851148115</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3304.761684844869</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3304.761684844869</v>
+        <v>3251.946298800536</v>
       </c>
       <c r="U38" t="n">
-        <v>3140.67773982731</v>
+        <v>3093.315087970519</v>
       </c>
       <c r="V38" t="n">
-        <v>2899.061384192344</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W38" t="n">
-        <v>2635.739260630835</v>
+        <v>2599.282077149127</v>
       </c>
       <c r="X38" t="n">
-        <v>2351.72003407836</v>
+        <v>2320.715584784194</v>
       </c>
       <c r="Y38" t="n">
-        <v>2063.644658017322</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>644.381021898784</v>
+        <v>524.7032579765868</v>
       </c>
       <c r="C40" t="n">
-        <v>475.4448389708771</v>
+        <v>450.6663409448265</v>
       </c>
       <c r="D40" t="n">
-        <v>325.3281995585413</v>
+        <v>395.4489674286374</v>
       </c>
       <c r="E40" t="n">
-        <v>266.8616376847529</v>
+        <v>247.5358738462443</v>
       </c>
       <c r="F40" t="n">
-        <v>209.4182218954472</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G40" t="n">
-        <v>131.1619169787709</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H40" t="n">
-        <v>74.39126190523335</v>
+        <v>68.93852771769144</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1926.910622554625</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.224738381451</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.336951636147</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1371.680616470395</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1206.442659973113</v>
+        <v>1064.953959300748</v>
       </c>
       <c r="W40" t="n">
-        <v>1006.472021644757</v>
+        <v>870.4360551599341</v>
       </c>
       <c r="X40" t="n">
-        <v>867.9290024553443</v>
+        <v>737.3457701580634</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.5829550204189</v>
+        <v>611.4524569106799</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2051.189147350246</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.223529170366</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="D41" t="n">
-        <v>1407.954729324146</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>1064.163375486434</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F41" t="n">
-        <v>695.1743694573572</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G41" t="n">
-        <v>322.0988180628849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3257.312051896795</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3093.331203041549</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>2881.797625075916</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>2592.731636492877</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W41" t="n">
-        <v>2592.731636492877</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X41" t="n">
-        <v>2399.331580565527</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y41" t="n">
-        <v>2051.189147350246</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>797.6353891180884</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C43" t="n">
-        <v>670.6961049507128</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D43" t="n">
-        <v>562.5763642989083</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E43" t="n">
-        <v>456.6601694770465</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F43" t="n">
-        <v>351.7671207396674</v>
+        <v>335.4089181770423</v>
       </c>
       <c r="G43" t="n">
-        <v>226.0611828749176</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H43" t="n">
-        <v>121.8408948533067</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>152.7959093543156</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K43" t="n">
-        <v>397.9442527783887</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6652117020815</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.552954957888</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.043714353498</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2137.812375262354</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2059.061287995482</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1632.185603211715</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
-        <v>1419.498013766359</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.2869551877968</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2051.189147350245</v>
+        <v>2012.430767830337</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.223529170365</v>
+        <v>1690.917883837998</v>
       </c>
       <c r="D44" t="n">
-        <v>1407.954729324146</v>
+        <v>1380.101818179321</v>
       </c>
       <c r="E44" t="n">
-        <v>1064.163375486433</v>
+        <v>1041.76319852915</v>
       </c>
       <c r="F44" t="n">
-        <v>695.1743694573569</v>
+        <v>678.226926687616</v>
       </c>
       <c r="G44" t="n">
-        <v>322.0988180628848</v>
+        <v>310.6041094806858</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3231.400006614745</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3019.866428649113</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2730.800440066074</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2730.800440066074</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X44" t="n">
-        <v>2399.331580565525</v>
+        <v>2694.270673974123</v>
       </c>
       <c r="Y44" t="n">
-        <v>2051.189147350245</v>
+        <v>2351.580974946385</v>
       </c>
     </row>
     <row r="45">
@@ -7721,19 +7721,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,7 +7742,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.41198488674</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>667.637843899739</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C46" t="n">
-        <v>540.6985597323635</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D46" t="n">
-        <v>432.5788190805592</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E46" t="n">
-        <v>326.6626242586975</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F46" t="n">
-        <v>221.7695755213186</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G46" t="n">
-        <v>96.06363765656897</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K46" t="n">
-        <v>397.9442527783888</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6652117020817</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
-        <v>1140.983417776828</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R46" t="n">
-        <v>2208.750273408126</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S46" t="n">
-        <v>2059.061287995484</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
-        <v>1879.291571325541</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1632.185603211716</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.498013766361</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.077742489932</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>986.0850903524458</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.2894099694472</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>127.8919143043921</v>
+        <v>132.849622231928</v>
       </c>
       <c r="K8" t="n">
-        <v>140.4257984522866</v>
+        <v>147.8561174824615</v>
       </c>
       <c r="L8" t="n">
-        <v>136.9361133513514</v>
+        <v>146.1540811420361</v>
       </c>
       <c r="M8" t="n">
-        <v>120.378480116088</v>
+        <v>130.63524539547</v>
       </c>
       <c r="N8" t="n">
-        <v>117.6659172723209</v>
+        <v>128.0886477370413</v>
       </c>
       <c r="O8" t="n">
-        <v>124.5785499236786</v>
+        <v>134.4204387476744</v>
       </c>
       <c r="P8" t="n">
-        <v>141.1744059503689</v>
+        <v>149.574230361504</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.6754395129682</v>
+        <v>160.9833578264597</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>95.17947423155574</v>
+        <v>98.13225110949671</v>
       </c>
       <c r="K9" t="n">
-        <v>83.73261402642345</v>
+        <v>88.77938002220603</v>
       </c>
       <c r="L9" t="n">
-        <v>65.79838719363549</v>
+        <v>72.58438688457221</v>
       </c>
       <c r="M9" t="n">
-        <v>57.23122225234843</v>
+        <v>65.15016381674423</v>
       </c>
       <c r="N9" t="n">
-        <v>44.19177562496814</v>
+        <v>52.32030800902746</v>
       </c>
       <c r="O9" t="n">
-        <v>62.87107870713125</v>
+        <v>70.30709780084388</v>
       </c>
       <c r="P9" t="n">
-        <v>69.98793321536732</v>
+        <v>75.95599410909527</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.2085106130412</v>
+        <v>101.198001270652</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>96.37502886873418</v>
+        <v>99.41921816616171</v>
       </c>
       <c r="L10" t="n">
-        <v>93.11897972398813</v>
+        <v>97.01449394700299</v>
       </c>
       <c r="M10" t="n">
-        <v>94.88971291075387</v>
+        <v>98.99698646752562</v>
       </c>
       <c r="N10" t="n">
-        <v>84.69655277217997</v>
+        <v>88.70616454397947</v>
       </c>
       <c r="O10" t="n">
-        <v>98.74924665337602</v>
+        <v>102.452772099104</v>
       </c>
       <c r="P10" t="n">
-        <v>103.7515562689314</v>
+        <v>106.920562091543</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>124.5185911550064</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>12.68816924374642</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>137.5908801368512</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>167.7369666428374</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>122.1718867553244</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>287.0017854473915</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>336.8335818149097</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>78.40458911672883</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.535552988594192e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.67646625668006</v>
+        <v>14.73487899239088</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>51.41950142840724</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.7586765022535</v>
       </c>
     </row>
     <row r="12">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.981554650711359</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>39.22023203461646</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>245.2834320100557</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.32535640796436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>68.88045132088206</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.981554650711132</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>107.221458315554</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.6356953966572</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>52.28225787287718</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.23748855099068</v>
       </c>
       <c r="T38" t="n">
-        <v>115.3659037481015</v>
+        <v>37.04476932188649</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.49124996410802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>154.5936377623551</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>136.6881155374662</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>128.6975697661684</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.1569118905545</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.981554650710478</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.61083201524978</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T44" t="n">
-        <v>69.0772835222146</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>307.6640389444869</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>73.92207912925295</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.77549063691201</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732378.7878996893</v>
+        <v>735728.7042397734</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>641107.13056433</v>
+        <v>641107.1305643299</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>641107.1305643299</v>
+        <v>641107.1305643298</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679332.1282589624</v>
+        <v>684295.1316687315</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679332.1282589625</v>
+        <v>684295.1316687316</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633595.9152731907</v>
+        <v>641107.1305643299</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633595.9152731909</v>
+        <v>641107.1305643299</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
         <v>757831.7007766771</v>
       </c>
       <c r="D2" t="n">
-        <v>757876.7256660203</v>
+        <v>757872.4247362899</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481046</v>
+        <v>707191.1841481044</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481046</v>
+        <v>707191.1841481039</v>
       </c>
       <c r="G2" t="n">
-        <v>707191.1841481042</v>
+        <v>707191.1841481047</v>
       </c>
       <c r="H2" t="n">
-        <v>707191.1841481047</v>
+        <v>707191.1841481045</v>
       </c>
       <c r="I2" t="n">
+        <v>759463.6371244616</v>
+      </c>
+      <c r="J2" t="n">
         <v>759463.6371244614</v>
       </c>
-      <c r="J2" t="n">
-        <v>759463.6371244615</v>
-      </c>
       <c r="K2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="M2" t="n">
-        <v>750049.5148966319</v>
+        <v>755614.0944772821</v>
       </c>
       <c r="N2" t="n">
-        <v>750049.5148966325</v>
+        <v>755614.094477282</v>
       </c>
       <c r="O2" t="n">
-        <v>698769.5185186466</v>
+        <v>707191.1841481037</v>
       </c>
       <c r="P2" t="n">
-        <v>698769.5185186464</v>
+        <v>707191.1841481045</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>130270.0864268416</v>
+        <v>117826.247122382</v>
       </c>
       <c r="E3" t="n">
-        <v>1036190.04692843</v>
+        <v>1047863.627496613</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902292</v>
+        <v>48646.25967902295</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487415</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>194861.9769234551</v>
+        <v>199180.5423999883</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>393961.370480575</v>
+        <v>397875.5573827142</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.5574135986</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.55741359857</v>
       </c>
       <c r="G4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.5574135986</v>
       </c>
       <c r="H4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.55741359851</v>
       </c>
       <c r="I4" t="n">
+        <v>82806.76150409848</v>
+      </c>
+      <c r="J4" t="n">
         <v>82806.76150409842</v>
       </c>
-      <c r="J4" t="n">
-        <v>82806.76150409854</v>
-      </c>
       <c r="K4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409848</v>
       </c>
       <c r="M4" t="n">
-        <v>84545.12538744757</v>
+        <v>87978.7241053006</v>
       </c>
       <c r="N4" t="n">
-        <v>84545.12538744762</v>
+        <v>87978.7241053006</v>
       </c>
       <c r="O4" t="n">
-        <v>53005.67962103673</v>
+        <v>58215.55741359859</v>
       </c>
       <c r="P4" t="n">
-        <v>53005.67962103686</v>
+        <v>58215.55741359858</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>37023.7124667868</v>
+        <v>36706.95480421096</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178175</v>
@@ -26493,25 +26493,25 @@
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="K5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>81750.82423086182</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="N5" t="n">
-        <v>81750.82423086185</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="O5" t="n">
-        <v>77801.67147047337</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>77801.67147047337</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287929.1335940124</v>
+        <v>287884.9978153311</v>
       </c>
       <c r="C6" t="n">
-        <v>285537.5427146233</v>
+        <v>285493.4363268454</v>
       </c>
       <c r="D6" t="n">
-        <v>196621.556291817</v>
+        <v>205420.6596867618</v>
       </c>
       <c r="E6" t="n">
-        <v>-465469.9135157055</v>
+        <v>-478556.2630832501</v>
       </c>
       <c r="F6" t="n">
-        <v>570720.1334127245</v>
+        <v>569307.3644133625</v>
       </c>
       <c r="G6" t="n">
-        <v>570720.1334127242</v>
+        <v>569307.3644133634</v>
       </c>
       <c r="H6" t="n">
-        <v>570720.1334127245</v>
+        <v>569307.3644133633</v>
       </c>
       <c r="I6" t="n">
         <v>538632.6742665339</v>
       </c>
       <c r="J6" t="n">
-        <v>549698.8246506827</v>
+        <v>549698.8246506829</v>
       </c>
       <c r="K6" t="n">
-        <v>587278.9339455568</v>
+        <v>587278.9339455573</v>
       </c>
       <c r="L6" t="n">
-        <v>587278.9339455573</v>
+        <v>587278.9339455576</v>
       </c>
       <c r="M6" t="n">
-        <v>388891.5883548674</v>
+        <v>386146.1401966561</v>
       </c>
       <c r="N6" t="n">
-        <v>583753.565278323</v>
+        <v>585326.6825966442</v>
       </c>
       <c r="O6" t="n">
-        <v>567962.1674271364</v>
+        <v>569307.3644133623</v>
       </c>
       <c r="P6" t="n">
-        <v>567962.1674271361</v>
+        <v>569307.3644133632</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859269</v>
-      </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="N2" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26743,13 +26743,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7849755406787</v>
+        <v>141.254807532613</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292609</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>152.1111126474364</v>
+        <v>137.5809446393707</v>
       </c>
       <c r="E3" t="n">
-        <v>933.9917250526198</v>
+        <v>948.5218930606848</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.431487389904291e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063219</v>
+        <v>182.935005806322</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.061001590115</v>
+        <v>333.6592210197134</v>
       </c>
       <c r="I8" t="n">
-        <v>186.3315668788199</v>
+        <v>188.5835238723112</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.5291060022264</v>
+        <v>114.198375011821</v>
       </c>
       <c r="S8" t="n">
-        <v>194.7489132842022</v>
+        <v>196.0799934992125</v>
       </c>
       <c r="T8" t="n">
-        <v>220.3543471302446</v>
+        <v>220.6100488808187</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2955512071601</v>
+        <v>251.300224226017</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0084324988401</v>
+        <v>137.0396860677631</v>
       </c>
       <c r="H9" t="n">
-        <v>108.9992318200759</v>
+        <v>109.301075498885</v>
       </c>
       <c r="I9" t="n">
-        <v>77.85972664392142</v>
+        <v>78.93578153885835</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>79.35319157005965</v>
+        <v>81.29365438441982</v>
       </c>
       <c r="S9" t="n">
-        <v>165.4591204301135</v>
+        <v>166.0396417651528</v>
       </c>
       <c r="T9" t="n">
-        <v>198.8141023502755</v>
+        <v>198.9400761653643</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9193370372662</v>
+        <v>225.9213931931164</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7100556320739</v>
+        <v>167.7362575743836</v>
       </c>
       <c r="H10" t="n">
-        <v>159.7295051946726</v>
+        <v>159.9624642817528</v>
       </c>
       <c r="I10" t="n">
-        <v>147.002332319249</v>
+        <v>147.7902961843421</v>
       </c>
       <c r="J10" t="n">
-        <v>73.49787266126526</v>
+        <v>75.35034998255587</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>62.6385119450519</v>
+        <v>64.83256731426982</v>
       </c>
       <c r="R10" t="n">
-        <v>164.6620390980843</v>
+        <v>165.8401737041153</v>
       </c>
       <c r="S10" t="n">
-        <v>219.1208636417021</v>
+        <v>219.5774920363162</v>
       </c>
       <c r="T10" t="n">
-        <v>226.7452789610008</v>
+        <v>226.8572327145056</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3037062441426</v>
+        <v>286.3051354409959</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859102</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C37" t="n">
-        <v>88.55206639151865</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E37" t="n">
-        <v>88.55206639151865</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>88.55206639151865</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H37" t="n">
-        <v>88.55206639151865</v>
+        <v>91.48995205464254</v>
       </c>
       <c r="I37" t="n">
-        <v>88.55206639151865</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.55206639151865</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T37" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W37" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X37" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.30004039831758</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E40" t="n">
-        <v>88.55206639151865</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>88.55206639151865</v>
+        <v>91.48995205464256</v>
       </c>
       <c r="G40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.55206639151865</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.30004039831772</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.55206639151865</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.55206639151865</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.57692977292611</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6262712584549893</v>
+        <v>0.5678585227441726</v>
       </c>
       <c r="H8" t="n">
-        <v>6.413800525652161</v>
+        <v>5.815581096053759</v>
       </c>
       <c r="I8" t="n">
-        <v>24.144322691586</v>
+        <v>21.89236569809473</v>
       </c>
       <c r="J8" t="n">
-        <v>53.1539902222942</v>
+        <v>48.19628229475826</v>
       </c>
       <c r="K8" t="n">
-        <v>79.66405259269392</v>
+        <v>72.23373356251909</v>
       </c>
       <c r="L8" t="n">
-        <v>98.83030161863581</v>
+        <v>89.61233382795109</v>
       </c>
       <c r="M8" t="n">
-        <v>109.9677531111847</v>
+        <v>99.71098783180275</v>
       </c>
       <c r="N8" t="n">
-        <v>111.74714632427</v>
+        <v>101.3244158595496</v>
       </c>
       <c r="O8" t="n">
-        <v>105.5196614980082</v>
+        <v>95.67777267401227</v>
       </c>
       <c r="P8" t="n">
-        <v>90.05858980490061</v>
+        <v>81.65876539376551</v>
       </c>
       <c r="Q8" t="n">
-        <v>67.63025036148127</v>
+        <v>61.3223320479898</v>
       </c>
       <c r="R8" t="n">
-        <v>39.34001193892326</v>
+        <v>35.67074292932866</v>
       </c>
       <c r="S8" t="n">
-        <v>14.27115630204308</v>
+        <v>12.94007608703284</v>
       </c>
       <c r="T8" t="n">
-        <v>2.741502433886717</v>
+        <v>2.485800683312616</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05010170067639914</v>
+        <v>0.04542868181953379</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3350846643705165</v>
+        <v>0.3038310954475073</v>
       </c>
       <c r="H9" t="n">
-        <v>3.236212416420515</v>
+        <v>2.934368737611452</v>
       </c>
       <c r="I9" t="n">
-        <v>11.53690620749366</v>
+        <v>10.46085131255672</v>
       </c>
       <c r="J9" t="n">
-        <v>31.65815243511095</v>
+        <v>28.70537555716998</v>
       </c>
       <c r="K9" t="n">
-        <v>54.10882494793555</v>
+        <v>49.06205895215297</v>
       </c>
       <c r="L9" t="n">
-        <v>72.75599258623869</v>
+        <v>65.96999289530197</v>
       </c>
       <c r="M9" t="n">
-        <v>84.90281166966989</v>
+        <v>76.98387010527409</v>
       </c>
       <c r="N9" t="n">
-        <v>87.14993645836516</v>
+        <v>79.02140407430585</v>
       </c>
       <c r="O9" t="n">
-        <v>79.72516573731319</v>
+        <v>72.28914664360056</v>
       </c>
       <c r="P9" t="n">
-        <v>63.98647419896293</v>
+        <v>58.01841330523497</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.77326347298032</v>
+        <v>38.78377281536953</v>
       </c>
       <c r="R9" t="n">
-        <v>20.80464258258348</v>
+        <v>18.86417976822331</v>
       </c>
       <c r="S9" t="n">
-        <v>6.224050673724283</v>
+        <v>5.643529338685054</v>
       </c>
       <c r="T9" t="n">
-        <v>1.350626344546072</v>
+        <v>1.224652529457277</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02204504370858662</v>
+        <v>0.01998888785838865</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2809237263848304</v>
+        <v>0.2547217840752038</v>
       </c>
       <c r="H10" t="n">
-        <v>2.497667312766949</v>
+        <v>2.264708225686813</v>
       </c>
       <c r="I10" t="n">
-        <v>8.448142608009267</v>
+        <v>7.660178742916131</v>
       </c>
       <c r="J10" t="n">
-        <v>19.86130745540751</v>
+        <v>18.00883013411691</v>
       </c>
       <c r="K10" t="n">
-        <v>32.6382293018012</v>
+        <v>29.59404000437367</v>
       </c>
       <c r="L10" t="n">
-        <v>41.76569655725016</v>
+        <v>37.8701823342353</v>
       </c>
       <c r="M10" t="n">
-        <v>44.03607103685119</v>
+        <v>39.92879748007944</v>
       </c>
       <c r="N10" t="n">
-        <v>42.98899169305322</v>
+        <v>38.97937992125372</v>
       </c>
       <c r="O10" t="n">
-        <v>39.70729179846678</v>
+        <v>36.00376635273882</v>
       </c>
       <c r="P10" t="n">
-        <v>33.9764477802162</v>
+        <v>30.80744195760463</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.52353130664249</v>
+        <v>21.32947593742457</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63135227908519</v>
+        <v>11.45321767305416</v>
       </c>
       <c r="S10" t="n">
-        <v>4.895734395270179</v>
+        <v>4.43910600065605</v>
       </c>
       <c r="T10" t="n">
-        <v>1.200310467280639</v>
+        <v>1.088356713775871</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0153231123482635</v>
+        <v>0.01389391549501113</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233468</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33751,7 +33751,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34477,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34526,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34544,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013285</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861311</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36059,7 +36059,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887896</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861327</v>
@@ -36296,10 +36296,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>461.7098777104068</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36372,13 +36372,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>520.7411701319654</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637025</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36612,13 +36612,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>536.3528663562229</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>418.5312714465568</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165888</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>312.9588877240369</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36843,19 +36843,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>685.7637716667631</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>844.8865827031289</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204483</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865553984</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37387,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37399,7 +37399,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>389.2103091664097</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>276.5340009180363</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.15534638599227</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>247.6245893172456</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>361.3343019431241</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>386.4338759404661</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>343.9300599955658</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>119.9711683108197</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
